--- a/keto-excel-program.xlsx
+++ b/keto-excel-program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahilbawa/Desktop/ExcelKeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E4962-B6BB-BE46-9FEC-44A32B144C6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A0ABC-08FE-E748-A309-08C485EA32DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="112">
   <si>
     <t>MY TASKS</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>Start your journey</t>
-  </si>
-  <si>
-    <t>Macro Calculator KETO v 0.1.0</t>
   </si>
   <si>
     <t>In the chart above, notice that Calories coming from fat are much greater than Calories that come from Protein. 
@@ -778,9 +775,6 @@
     <t>Are you ready for a 24 hour fasting challenge? | Recommended = Yes</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Don't change this value</t>
   </si>
   <si>
@@ -788,6 +782,21 @@
   </si>
   <si>
     <t>Fasting time between meals recommended = 3 hours</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Keto Macro Calculator v 0.1.0</t>
+  </si>
+  <si>
+    <t>Wake Up Time (24 hr)--&gt; This time is wake up time if you don't work out or workout in the evening. Otherwise, this is workout time.</t>
+  </si>
+  <si>
+    <t>Week 2 Meal Timings and Macro Breakdown</t>
+  </si>
+  <si>
+    <t>Week 3 Meal Timings and Macro Breakdown</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1678,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2303,6 +2312,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2336,69 +2408,6 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2425,6 +2434,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6142,13 +6154,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34.329027777777782</c:v>
+                  <c:v>32.61257638888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.649374999999999</c:v>
+                  <c:v>33.86690625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9415624999999999</c:v>
+                  <c:v>5.6444843750000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6258,13 +6270,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27.463222222222225</c:v>
+                  <c:v>26.090061111111112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.519499999999997</c:v>
+                  <c:v>27.093525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7532500000000004</c:v>
+                  <c:v>4.5155875000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6374,13 +6386,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>75.523861111111117</c:v>
+                  <c:v>71.747668055555565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.428625000000011</c:v>
+                  <c:v>74.507193749999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.071437500000002</c:v>
+                  <c:v>12.417865625000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10977,7 +10989,7 @@
   <dimension ref="B2:S103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10999,13 +11011,13 @@
   <sheetData>
     <row r="2" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J2" s="163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="163"/>
     </row>
     <row r="3" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="190" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C3" s="191"/>
       <c r="D3" s="191"/>
@@ -11016,7 +11028,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="192"/>
       <c r="K3" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -11030,7 +11042,7 @@
       <c r="I4" s="194"/>
       <c r="J4" s="195"/>
       <c r="K4" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -11117,7 +11129,7 @@
     </row>
     <row r="12" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="179"/>
       <c r="D12" s="179"/>
@@ -11141,7 +11153,7 @@
       <c r="I13" s="165"/>
       <c r="J13" s="166"/>
       <c r="K13" s="181" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" s="182"/>
       <c r="M13" s="182"/>
@@ -11544,7 +11556,7 @@
     </row>
     <row r="40" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="165"/>
       <c r="D40" s="165"/>
@@ -11555,7 +11567,7 @@
       <c r="I40" s="165"/>
       <c r="J40" s="166"/>
       <c r="K40" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L40" s="174"/>
       <c r="M40" s="174"/>
@@ -11577,10 +11589,10 @@
       <c r="I41" s="168"/>
       <c r="J41" s="169"/>
       <c r="K41" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="55" t="s">
         <v>51</v>
-      </c>
-      <c r="L41" s="55" t="s">
-        <v>52</v>
       </c>
       <c r="M41" s="43"/>
       <c r="N41" s="29"/>
@@ -11601,10 +11613,10 @@
       <c r="I42" s="168"/>
       <c r="J42" s="169"/>
       <c r="K42" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L42" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M42" s="57"/>
       <c r="O42" s="43"/>
@@ -11624,10 +11636,10 @@
       <c r="I43" s="168"/>
       <c r="J43" s="169"/>
       <c r="K43" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L43" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M43" s="57"/>
       <c r="O43" s="57"/>
@@ -11647,10 +11659,10 @@
       <c r="I44" s="168"/>
       <c r="J44" s="169"/>
       <c r="K44" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M44" s="57"/>
       <c r="O44" s="57"/>
@@ -11670,10 +11682,10 @@
       <c r="I45" s="168"/>
       <c r="J45" s="169"/>
       <c r="K45" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M45" s="57"/>
       <c r="O45" s="57"/>
@@ -11693,10 +11705,10 @@
       <c r="I46" s="168"/>
       <c r="J46" s="169"/>
       <c r="K46" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L46" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M46" s="29"/>
       <c r="O46" s="57"/>
@@ -11716,10 +11728,10 @@
       <c r="I47" s="168"/>
       <c r="J47" s="169"/>
       <c r="K47" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L47" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M47" s="29"/>
       <c r="O47" s="29"/>
@@ -11739,10 +11751,10 @@
       <c r="I48" s="168"/>
       <c r="J48" s="169"/>
       <c r="K48" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L48" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M48" s="29"/>
       <c r="O48" s="29"/>
@@ -11762,10 +11774,10 @@
       <c r="I49" s="168"/>
       <c r="J49" s="169"/>
       <c r="K49" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L49" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M49" s="29"/>
       <c r="O49" s="29"/>
@@ -11785,10 +11797,10 @@
       <c r="I50" s="168"/>
       <c r="J50" s="169"/>
       <c r="K50" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L50" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M50" s="29"/>
       <c r="O50" s="29"/>
@@ -11808,10 +11820,10 @@
       <c r="I51" s="168"/>
       <c r="J51" s="169"/>
       <c r="K51" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M51" s="29"/>
       <c r="O51" s="29"/>
@@ -11831,10 +11843,10 @@
       <c r="I52" s="168"/>
       <c r="J52" s="169"/>
       <c r="K52" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L52" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M52" s="29"/>
       <c r="O52" s="59"/>
@@ -11854,10 +11866,10 @@
       <c r="I53" s="168"/>
       <c r="J53" s="169"/>
       <c r="K53" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="L53" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="M53" s="29"/>
       <c r="O53" s="29"/>
@@ -11877,10 +11889,10 @@
       <c r="I54" s="168"/>
       <c r="J54" s="169"/>
       <c r="K54" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L54" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M54" s="29"/>
       <c r="O54" s="29"/>
@@ -12614,9 +12626,7 @@
   </sheetPr>
   <dimension ref="C1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12687,16 +12697,16 @@
         <v>21</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="174"/>
       <c r="P11" s="174"/>
@@ -12727,10 +12737,10 @@
       <c r="I12" s="35"/>
       <c r="M12" s="29"/>
       <c r="N12" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="55" t="s">
         <v>51</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>52</v>
       </c>
       <c r="P12" s="43"/>
     </row>
@@ -12759,10 +12769,10 @@
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O13" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P13" s="57"/>
     </row>
@@ -12791,10 +12801,10 @@
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O14" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P14" s="57"/>
     </row>
@@ -12823,10 +12833,10 @@
       </c>
       <c r="M15" s="29"/>
       <c r="N15" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O15" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P15" s="57"/>
     </row>
@@ -12851,103 +12861,103 @@
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="29"/>
       <c r="N16" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O16" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P16" s="57"/>
     </row>
     <row r="17" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M17" s="29"/>
       <c r="N17" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M18" s="29"/>
       <c r="N18" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M19" s="29"/>
       <c r="N19" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M20" s="29"/>
       <c r="N20" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M21" s="29"/>
       <c r="N21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P21" s="29"/>
     </row>
     <row r="22" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M22" s="29"/>
       <c r="N22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O22" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M23" s="29"/>
       <c r="N23" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M24" s="29"/>
       <c r="N24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="O24" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="13:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O25" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -13345,7 +13355,7 @@
       <c r="F12" s="203"/>
       <c r="G12" s="203"/>
       <c r="H12" s="210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="203"/>
       <c r="J12" s="203"/>
@@ -13353,10 +13363,10 @@
     </row>
     <row r="13" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>11</v>
@@ -13386,7 +13396,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20">
         <f>I7</f>
@@ -13423,7 +13433,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="20">
         <f>I7</f>
@@ -13460,7 +13470,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="20">
         <f>I7</f>
@@ -13497,7 +13507,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="20">
         <f>I7</f>
@@ -13532,7 +13542,7 @@
     <row r="18" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="202"/>
       <c r="C18" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="20">
         <f>I7</f>
@@ -13565,7 +13575,7 @@
     </row>
     <row r="20" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M20" s="207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20" s="207"/>
       <c r="O20" s="207"/>
@@ -13580,7 +13590,7 @@
     </row>
     <row r="21" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="205"/>
       <c r="F21" s="205"/>
@@ -13599,10 +13609,10 @@
     </row>
     <row r="22" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>52</v>
       </c>
       <c r="F22" s="43"/>
       <c r="M22" s="208"/>
@@ -13620,10 +13630,10 @@
     <row r="23" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="61"/>
       <c r="D23" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="57"/>
       <c r="M23" s="208"/>
@@ -13641,10 +13651,10 @@
     <row r="24" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="29"/>
       <c r="D24" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="57"/>
       <c r="M24" s="208"/>
@@ -13662,10 +13672,10 @@
     <row r="25" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="29"/>
       <c r="D25" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="57"/>
       <c r="M25" s="208"/>
@@ -13683,10 +13693,10 @@
     <row r="26" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="D26" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="57"/>
       <c r="M26" s="208"/>
@@ -13704,10 +13714,10 @@
     <row r="27" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="29"/>
       <c r="D27" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="29"/>
       <c r="M27" s="209"/>
@@ -13725,80 +13735,80 @@
     <row r="28" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="29"/>
       <c r="D28" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="29"/>
     </row>
     <row r="29" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="D29" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="29"/>
       <c r="D30" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="29"/>
       <c r="D31" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="29"/>
     </row>
     <row r="32" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="D32" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="29"/>
       <c r="D33" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="29"/>
     </row>
     <row r="34" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="29"/>
       <c r="D34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="F34" s="29"/>
     </row>
     <row r="35" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="29"/>
       <c r="D35" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -13862,7 +13872,7 @@
   <dimension ref="B1:AU68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13903,7 +13913,7 @@
     </row>
     <row r="3" spans="2:45" ht="24" x14ac:dyDescent="0.2">
       <c r="B3" s="200" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C3" s="200"/>
       <c r="D3" s="200"/>
@@ -13917,7 +13927,10 @@
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
       <c r="N3" s="200"/>
-      <c r="O3" s="8"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
       <c r="AS3" s="39">
         <f>Macros!I7</f>
         <v>1901.3</v>
@@ -13940,7 +13953,7 @@
     </row>
     <row r="6" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="200" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="200"/>
       <c r="D6" s="200"/>
@@ -13949,7 +13962,7 @@
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
     </row>
-    <row r="7" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:45" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="157">
         <v>0.125</v>
       </c>
@@ -13962,7 +13975,7 @@
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="R9" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S9" s="174"/>
       <c r="T9" s="174"/>
@@ -13970,97 +13983,97 @@
       <c r="V9" s="174"/>
     </row>
     <row r="10" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="234" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="222" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="223"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="240" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="241"/>
-      <c r="O10" s="242"/>
+      <c r="B10" s="226" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="215"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="211" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="212"/>
+      <c r="O10" s="213"/>
       <c r="P10" s="116"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="55" t="s">
         <v>51</v>
-      </c>
-      <c r="S10" s="55" t="s">
-        <v>52</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="E11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="F11" s="112" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="112" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="113" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="111" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="L11" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="115" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="62"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
     </row>
     <row r="12" spans="2:45" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="237" t="s">
-        <v>68</v>
+      <c r="B12" s="229" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="64">
         <f>B4+B7</f>
@@ -14081,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14110,18 +14123,18 @@
       <c r="P12" s="105"/>
       <c r="Q12" s="54"/>
       <c r="R12" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S12" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" s="57"/>
       <c r="V12" s="57"/>
     </row>
     <row r="13" spans="2:45" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="238"/>
+      <c r="B13" s="230"/>
       <c r="C13" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="64">
         <f>D12+B7</f>
@@ -14142,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14171,18 +14184,18 @@
       <c r="P13" s="105"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S13" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U13" s="57"/>
       <c r="V13" s="57"/>
     </row>
     <row r="14" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="238"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="64">
         <f>D13+B7</f>
@@ -14203,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14232,18 +14245,18 @@
       <c r="P14" s="105"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U14" s="57"/>
       <c r="V14" s="57"/>
     </row>
     <row r="15" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="239"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="78">
         <f>D14+B7</f>
@@ -14264,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="121">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14293,20 +14306,20 @@
       <c r="P15" s="105"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
     </row>
     <row r="16" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="225" t="s">
-        <v>73</v>
+      <c r="B16" s="217" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="85">
         <f>B4+B7</f>
@@ -14327,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14356,18 +14369,18 @@
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="226"/>
+      <c r="B17" s="218"/>
       <c r="C17" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="64">
         <f>D16+B7</f>
@@ -14388,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14415,18 +14428,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="226"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="64">
         <f>D17+B7</f>
@@ -14447,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14474,18 +14487,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S18" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
     </row>
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="227"/>
+      <c r="B19" s="219"/>
       <c r="C19" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="78">
         <f>D18+B7</f>
@@ -14506,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="121">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14533,20 +14546,20 @@
         <v>8.3181874999999987</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S19" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
     <row r="20" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="228" t="s">
-        <v>74</v>
+      <c r="B20" s="220" t="s">
+        <v>73</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="85">
         <f>B4+B7</f>
@@ -14567,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14594,18 +14607,18 @@
         <v>3.5649375000000001</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U20" s="29"/>
       <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="229"/>
+      <c r="B21" s="221"/>
       <c r="C21" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="64">
         <f>D20+B7</f>
@@ -14626,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14653,18 +14666,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S21" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
     </row>
     <row r="22" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="229"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="64">
         <f>D21+B7</f>
@@ -14685,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14712,18 +14725,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="S22" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
     </row>
     <row r="23" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="230"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="78">
         <f>D22+B7</f>
@@ -14744,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="121">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14771,18 +14784,18 @@
         <v>8.3181874999999987</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S23" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="231" t="s">
-        <v>75</v>
+      <c r="B24" s="223" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="85">
         <f>B4+B7</f>
@@ -14803,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14831,9 +14844,9 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="232"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="64">
         <f>D24+B7</f>
@@ -14854,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14882,9 +14895,9 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="232"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="64">
         <f>D25+B7</f>
@@ -14905,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14933,9 +14946,9 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="233"/>
+      <c r="B27" s="225"/>
       <c r="C27" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="78">
         <f>D26+B7</f>
@@ -14956,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="121">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -14984,11 +14997,11 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="213" t="s">
-        <v>76</v>
+      <c r="B28" s="234" t="s">
+        <v>75</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="85">
         <f>B4+B7</f>
@@ -15009,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15037,9 +15050,9 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="214"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="64">
         <f>D28+B7</f>
@@ -15060,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J29" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15088,9 +15101,9 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="214"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="64">
         <f>D29+B7</f>
@@ -15111,7 +15124,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15139,9 +15152,9 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="215"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="78">
         <f>D30+B7</f>
@@ -15162,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="121">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15190,11 +15203,11 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="216" t="s">
-        <v>77</v>
+      <c r="B32" s="237" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="93">
         <f>B4+B7</f>
@@ -15215,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J32" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15243,9 +15256,9 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="217"/>
+      <c r="B33" s="238"/>
       <c r="C33" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="51">
         <f>D32+B7</f>
@@ -15266,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15294,9 +15307,9 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="217"/>
+      <c r="B34" s="238"/>
       <c r="C34" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="52">
         <f>D33+B7</f>
@@ -15317,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15345,9 +15358,9 @@
       </c>
     </row>
     <row r="35" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="218"/>
+      <c r="B35" s="239"/>
       <c r="C35" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="98">
         <f>D34+B7</f>
@@ -15368,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="121">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15396,11 +15409,11 @@
       </c>
     </row>
     <row r="36" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="219" t="s">
-        <v>78</v>
+      <c r="B36" s="240" t="s">
+        <v>77</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="93">
         <f>B4+B7</f>
@@ -15421,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J36" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15449,9 +15462,9 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="220"/>
+      <c r="B37" s="241"/>
       <c r="C37" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="51">
         <f>D36+B7</f>
@@ -15472,7 +15485,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15500,9 +15513,9 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="220"/>
+      <c r="B38" s="241"/>
       <c r="C38" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="52">
         <f>D37+B7</f>
@@ -15523,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" s="76">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15551,9 +15564,9 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="221"/>
+      <c r="B39" s="242"/>
       <c r="C39" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="98">
         <f>D38+B7</f>
@@ -15574,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="121">
         <f>Tasks5[[#This Row],[CALORIES]]*0.7</f>
@@ -15617,7 +15630,7 @@
     </row>
     <row r="42" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="117"/>
       <c r="E42" s="117"/>
@@ -15626,12 +15639,12 @@
       <c r="H42" s="117"/>
       <c r="I42" s="117"/>
       <c r="M42" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="165"/>
       <c r="E43" s="165"/>
@@ -15641,11 +15654,11 @@
       <c r="I43" s="165"/>
       <c r="J43" s="165"/>
       <c r="K43" s="166"/>
-      <c r="M43" s="211" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="212"/>
-      <c r="O43" s="212"/>
+      <c r="M43" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="N43" s="233"/>
+      <c r="O43" s="233"/>
       <c r="P43" s="119"/>
       <c r="Q43" s="119"/>
     </row>
@@ -15670,11 +15683,11 @@
       <c r="I45" s="168"/>
       <c r="J45" s="168"/>
       <c r="K45" s="169"/>
-      <c r="M45" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
+      <c r="M45" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
     </row>
     <row r="46" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="167"/>
@@ -15932,22 +15945,22 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="16">
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:B15"/>
     <mergeCell ref="C43:K56"/>
     <mergeCell ref="M43:O43"/>
     <mergeCell ref="M45:O45"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B3:R3"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="G12:G39">
@@ -16155,8 +16168,8 @@
   </sheetPr>
   <dimension ref="B1:AU68"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16197,7 +16210,7 @@
     </row>
     <row r="3" spans="2:45" ht="24" x14ac:dyDescent="0.2">
       <c r="B3" s="200" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C3" s="200"/>
       <c r="D3" s="200"/>
@@ -16211,7 +16224,10 @@
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
       <c r="N3" s="200"/>
-      <c r="O3" s="8"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
       <c r="AS3" s="39">
         <f>Macros!I7</f>
         <v>1901.3</v>
@@ -16234,7 +16250,7 @@
     </row>
     <row r="6" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="200" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="200"/>
       <c r="D6" s="200"/>
@@ -16243,7 +16259,7 @@
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
     </row>
-    <row r="7" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:45" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="157">
         <v>0.125</v>
       </c>
@@ -16259,7 +16275,7 @@
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="R9" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S9" s="174"/>
       <c r="T9" s="174"/>
@@ -16267,97 +16283,97 @@
       <c r="V9" s="174"/>
     </row>
     <row r="10" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="234" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="222" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="223"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="240" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="241"/>
-      <c r="O10" s="242"/>
+      <c r="B10" s="226" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="215"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="211" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="212"/>
+      <c r="O10" s="213"/>
       <c r="P10" s="116"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="55" t="s">
         <v>51</v>
-      </c>
-      <c r="S10" s="55" t="s">
-        <v>52</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="E11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="F11" s="112" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="112" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="113" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="111" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="L11" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="115" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="62"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
     </row>
     <row r="12" spans="2:45" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="237" t="s">
-        <v>68</v>
+      <c r="B12" s="229" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="85">
         <f>B4+B7</f>
@@ -16378,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="89">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16407,18 +16423,18 @@
       <c r="P12" s="105"/>
       <c r="Q12" s="54"/>
       <c r="R12" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S12" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" s="57"/>
       <c r="V12" s="57"/>
     </row>
     <row r="13" spans="2:45" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="238"/>
+      <c r="B13" s="230"/>
       <c r="C13" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="64">
         <f>D12+B7</f>
@@ -16439,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16468,18 +16484,18 @@
       <c r="P13" s="105"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S13" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U13" s="57"/>
       <c r="V13" s="57"/>
     </row>
     <row r="14" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="238"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="64">
         <f>D13+B7+B7</f>
@@ -16500,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16529,16 +16545,16 @@
       <c r="P14" s="105"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U14" s="57"/>
       <c r="V14" s="57"/>
     </row>
     <row r="15" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="239"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="97"/>
       <c r="D15" s="78"/>
       <c r="E15" s="99"/>
@@ -16561,30 +16577,30 @@
       <c r="P15" s="105"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
     </row>
     <row r="16" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="243" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="126">
         <f>B4+B7+B7</f>
         <v>0.52083333333333326</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="128">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G16" s="150">
         <v>0</v>
@@ -16594,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J16" s="152">
         <f>Tasks53[[#This Row],[CALORIES]]*0</f>
@@ -16602,7 +16618,7 @@
       </c>
       <c r="K16" s="152">
         <f>Tasks53[[#This Row],[CALORIES]]*1</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L16" s="153">
         <f>Tasks53[[#This Row],[CALORIES]]*0</f>
@@ -16614,7 +16630,7 @@
       </c>
       <c r="N16" s="132">
         <f>Tasks53[[#This Row],[PRO]]/4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O16" s="132">
         <f>Tasks53[[#This Row],[CHO]]/4</f>
@@ -16623,10 +16639,10 @@
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
@@ -16634,7 +16650,7 @@
     <row r="17" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="244"/>
       <c r="C17" s="133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="134">
         <f>D16+F7</f>
@@ -16655,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="130">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16682,10 +16698,10 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
@@ -16693,7 +16709,7 @@
     <row r="18" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="244"/>
       <c r="C18" s="133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="134">
         <f>D17+B7</f>
@@ -16714,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="130">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16741,10 +16757,10 @@
         <v>4.7532500000000004</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S18" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
@@ -16752,7 +16768,7 @@
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="245"/>
       <c r="C19" s="141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="142">
         <f>D18+B7-F7</f>
@@ -16773,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="146">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16800,20 +16816,20 @@
         <v>13.071437500000002</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S19" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
     <row r="20" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="228" t="s">
-        <v>74</v>
+      <c r="B20" s="220" t="s">
+        <v>73</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="85">
         <f>B4+B7</f>
@@ -16834,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="89">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16861,18 +16877,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U20" s="29"/>
       <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="229"/>
+      <c r="B21" s="221"/>
       <c r="C21" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="64">
         <f>D20+B7+F7</f>
@@ -16893,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16920,18 +16936,18 @@
         <v>4.7532500000000004</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S21" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
     </row>
     <row r="22" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="229"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="64">
         <f>D21+B7+B7-F7</f>
@@ -16952,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -16979,16 +16995,16 @@
         <v>13.071437500000002</v>
       </c>
       <c r="R22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="S22" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
     </row>
     <row r="23" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="230"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="97"/>
       <c r="D23" s="78"/>
       <c r="E23" s="99"/>
@@ -17003,18 +17019,18 @@
       <c r="N23" s="83"/>
       <c r="O23" s="83"/>
       <c r="R23" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S23" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="231" t="s">
-        <v>75</v>
+      <c r="B24" s="223" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="85">
         <f>B4+B7</f>
@@ -17035,7 +17051,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="89">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17063,9 +17079,9 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="232"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="64">
         <f>D24+B7+F7</f>
@@ -17086,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17114,9 +17130,9 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="232"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="64">
         <f>D25+B7+B7-F7</f>
@@ -17137,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17165,7 +17181,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="233"/>
+      <c r="B27" s="225"/>
       <c r="C27" s="97"/>
       <c r="D27" s="78"/>
       <c r="E27" s="99"/>
@@ -17182,20 +17198,20 @@
     </row>
     <row r="28" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="246" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="125" t="s">
         <v>100</v>
-      </c>
-      <c r="C28" s="125" t="s">
-        <v>101</v>
       </c>
       <c r="D28" s="126">
         <f>B4+B7+B7</f>
         <v>0.52083333333333326</v>
       </c>
       <c r="E28" s="127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="149">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G28" s="150">
         <v>0</v>
@@ -17205,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="152">
         <f>Tasks53[[#This Row],[CALORIES]]*0</f>
@@ -17213,7 +17229,7 @@
       </c>
       <c r="K28" s="152">
         <f>Tasks53[[#This Row],[CALORIES]]*1</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L28" s="153">
         <f>Tasks53[[#This Row],[CALORIES]]*0</f>
@@ -17225,7 +17241,7 @@
       </c>
       <c r="N28" s="132">
         <f>Tasks53[[#This Row],[PRO]]/4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O28" s="132">
         <f>Tasks53[[#This Row],[CHO]]/4</f>
@@ -17235,7 +17251,7 @@
     <row r="29" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="247"/>
       <c r="C29" s="133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="134">
         <f>D28+F7</f>
@@ -17256,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J29" s="130">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17286,7 +17302,7 @@
     <row r="30" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="247"/>
       <c r="C30" s="133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="134">
         <f>D29+B7</f>
@@ -17307,7 +17323,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" s="130">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17337,7 +17353,7 @@
     <row r="31" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="248"/>
       <c r="C31" s="141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="142">
         <f>D30+B7-F7</f>
@@ -17355,7 +17371,7 @@
       </c>
       <c r="H31" s="145"/>
       <c r="I31" s="155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="146">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17374,11 +17390,11 @@
       <c r="O31" s="148"/>
     </row>
     <row r="32" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="217" t="s">
-        <v>77</v>
+      <c r="B32" s="238" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="51">
         <f>B4+B7</f>
@@ -17399,7 +17415,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J32" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17427,9 +17443,9 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="217"/>
+      <c r="B33" s="238"/>
       <c r="C33" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="51">
         <f>D32+B7+F7</f>
@@ -17450,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17478,9 +17494,9 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="217"/>
+      <c r="B34" s="238"/>
       <c r="C34" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="52">
         <f>D33+B7+B7-F7</f>
@@ -17501,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17529,7 +17545,7 @@
       </c>
     </row>
     <row r="35" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="218"/>
+      <c r="B35" s="239"/>
       <c r="C35" s="97"/>
       <c r="D35" s="98"/>
       <c r="E35" s="99"/>
@@ -17545,11 +17561,11 @@
       <c r="O35" s="83"/>
     </row>
     <row r="36" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="219" t="s">
-        <v>78</v>
+      <c r="B36" s="240" t="s">
+        <v>77</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="93">
         <f>B4+B7</f>
@@ -17570,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J36" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17598,9 +17614,9 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="220"/>
+      <c r="B37" s="241"/>
       <c r="C37" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="51">
         <f>D36+B7+F7</f>
@@ -17621,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17649,9 +17665,9 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="220"/>
+      <c r="B38" s="241"/>
       <c r="C38" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="52">
         <f>D37+B7+B7-F7</f>
@@ -17672,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="76">
         <f>Tasks53[[#This Row],[CALORIES]]*0.65</f>
@@ -17700,7 +17716,7 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="221"/>
+      <c r="B39" s="242"/>
       <c r="C39" s="97"/>
       <c r="D39" s="98"/>
       <c r="E39" s="99"/>
@@ -17731,7 +17747,7 @@
     </row>
     <row r="42" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="117"/>
       <c r="E42" s="117"/>
@@ -17740,12 +17756,12 @@
       <c r="H42" s="117"/>
       <c r="I42" s="117"/>
       <c r="M42" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="165"/>
       <c r="E43" s="165"/>
@@ -17755,11 +17771,11 @@
       <c r="I43" s="165"/>
       <c r="J43" s="165"/>
       <c r="K43" s="166"/>
-      <c r="M43" s="211" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="212"/>
-      <c r="O43" s="212"/>
+      <c r="M43" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="N43" s="233"/>
+      <c r="O43" s="233"/>
       <c r="P43" s="119"/>
       <c r="Q43" s="119"/>
     </row>
@@ -17784,11 +17800,11 @@
       <c r="I45" s="168"/>
       <c r="J45" s="168"/>
       <c r="K45" s="169"/>
-      <c r="M45" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
+      <c r="M45" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
     </row>
     <row r="46" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="167"/>
@@ -18046,12 +18062,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="C43:K56"/>
     <mergeCell ref="M43:O43"/>
@@ -18062,6 +18072,12 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G18 G20:G39">
     <cfRule type="dataBar" priority="7">
@@ -18154,7 +18170,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F32:F34 F36:F38 F15 L15 J16:L16 J12:L14 J17:L39 J15:K15 F24:F26 F20:F22 F17:F18 F16 F19 F23 F27:F31" calculatedColumn="1"/>
+    <ignoredError sqref="F32:F34 F36:F38 F15:F16 L15 J16:L16 J12:L14 J17:L39 J15:K15 F24:F26 F20:F22 F17:F18 F19 F23 F27:F28 F29:F31" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId17"/>
   <tableParts count="1">
@@ -18322,7 +18338,7 @@
   <dimension ref="B1:AU70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18358,12 +18374,12 @@
     <row r="2" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AS2" s="159">
         <f>IF(B10="Yes",Macros!I7,(Macros!I7*0.95))</f>
-        <v>1901.3</v>
+        <v>1806.2349999999999</v>
       </c>
     </row>
     <row r="3" spans="2:45" ht="24" x14ac:dyDescent="0.2">
       <c r="B3" s="200" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C3" s="200"/>
       <c r="D3" s="200"/>
@@ -18377,10 +18393,13 @@
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
       <c r="N3" s="200"/>
-      <c r="O3" s="8"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
       <c r="AS3" s="159">
         <f>IF(B10="Yes",Macros!I7,(Macros!I7*0.95))</f>
-        <v>1901.3</v>
+        <v>1806.2349999999999</v>
       </c>
     </row>
     <row r="4" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -18389,18 +18408,18 @@
       </c>
       <c r="AS4" s="159">
         <f>IF(B10="Yes",Macros!I7,(Macros!I7*0.95))</f>
-        <v>1901.3</v>
+        <v>1806.2349999999999</v>
       </c>
     </row>
     <row r="5" spans="2:45" ht="16" x14ac:dyDescent="0.2">
       <c r="AS5" s="159">
         <f>IF(B10="Yes",Macros!I7,(Macros!I7*0.95))</f>
-        <v>1901.3</v>
+        <v>1806.2349999999999</v>
       </c>
     </row>
     <row r="6" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="200" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="200"/>
       <c r="D6" s="200"/>
@@ -18409,7 +18428,7 @@
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
     </row>
-    <row r="7" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:45" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="162">
         <v>0.125</v>
       </c>
@@ -18417,16 +18436,16 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="124"/>
+      <c r="B8" s="252"/>
       <c r="F8" s="124"/>
     </row>
     <row r="9" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="200" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="200"/>
       <c r="D9" s="200"/>
@@ -18438,11 +18457,11 @@
     </row>
     <row r="10" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="156" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10" s="160" t="str">
         <f>IF(B10="No", "Since you are not ready for a full day fast, I will put you in a 5 percent deficit.", "I am proud of you.")</f>
-        <v>I am proud of you.</v>
+        <v>Since you are not ready for a full day fast, I will put you in a 5 percent deficit.</v>
       </c>
       <c r="E10" s="117"/>
       <c r="F10" s="117"/>
@@ -18456,7 +18475,7 @@
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
       <c r="R11" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S11" s="174"/>
       <c r="T11" s="174"/>
@@ -18464,97 +18483,97 @@
       <c r="V11" s="174"/>
     </row>
     <row r="12" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="234" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="222" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="223"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="240" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="241"/>
-      <c r="O12" s="242"/>
+      <c r="B12" s="226" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="215"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="211" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="212"/>
+      <c r="O12" s="213"/>
       <c r="P12" s="116"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="55" t="s">
         <v>51</v>
-      </c>
-      <c r="S12" s="55" t="s">
-        <v>52</v>
       </c>
       <c r="U12" s="43"/>
       <c r="V12" s="43"/>
     </row>
     <row r="13" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="E13" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="F13" s="112" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" s="112" t="s">
-        <v>41</v>
       </c>
       <c r="G13" s="113" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="111" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="L13" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="115" t="s">
-        <v>45</v>
-      </c>
       <c r="M13" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" s="114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O13" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="62"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S13" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U13" s="57"/>
       <c r="V13" s="57"/>
     </row>
     <row r="14" spans="2:45" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="237" t="s">
-        <v>68</v>
+      <c r="B14" s="229" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="85">
         <f>B4+B7</f>
@@ -18565,7 +18584,7 @@
       </c>
       <c r="F14" s="86">
         <f>AS2*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>475.32499999999999</v>
+        <v>451.55874999999997</v>
       </c>
       <c r="G14" s="87">
         <v>0</v>
@@ -18575,47 +18594,47 @@
         <v>0</v>
       </c>
       <c r="I14" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="89">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>308.96125000000001</v>
+        <v>293.51318750000002</v>
       </c>
       <c r="K14" s="89">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>142.5975</v>
+        <v>135.467625</v>
       </c>
       <c r="L14" s="90">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>23.766249999999999</v>
+        <v>22.577937500000001</v>
       </c>
       <c r="M14" s="91">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>34.329027777777782</v>
+        <v>32.61257638888889</v>
       </c>
       <c r="N14" s="91">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>35.649374999999999</v>
+        <v>33.86690625</v>
       </c>
       <c r="O14" s="91">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>5.9415624999999999</v>
+        <v>5.6444843750000002</v>
       </c>
       <c r="P14" s="105"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U14" s="57"/>
       <c r="V14" s="57"/>
     </row>
     <row r="15" spans="2:45" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="238"/>
+      <c r="B15" s="230"/>
       <c r="C15" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="64">
         <f>D14+B7</f>
@@ -18626,7 +18645,7 @@
       </c>
       <c r="F15" s="65">
         <f>AS3*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>380.26</v>
+        <v>361.24700000000001</v>
       </c>
       <c r="G15" s="75">
         <v>0</v>
@@ -18636,47 +18655,47 @@
         <v>0</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>247.16900000000001</v>
+        <v>234.81055000000001</v>
       </c>
       <c r="K15" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>114.07799999999999</v>
+        <v>108.3741</v>
       </c>
       <c r="L15" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>19.013000000000002</v>
+        <v>18.062350000000002</v>
       </c>
       <c r="M15" s="68">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>27.463222222222225</v>
+        <v>26.090061111111112</v>
       </c>
       <c r="N15" s="68">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>28.519499999999997</v>
+        <v>27.093525</v>
       </c>
       <c r="O15" s="68">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>4.7532500000000004</v>
+        <v>4.5155875000000005</v>
       </c>
       <c r="P15" s="105"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
     </row>
     <row r="16" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="238"/>
+      <c r="B16" s="230"/>
       <c r="C16" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="64">
         <f>D15+B7+B7</f>
@@ -18687,7 +18706,7 @@
       </c>
       <c r="F16" s="65">
         <f>AS4*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>1045.7150000000001</v>
+        <v>993.42925000000002</v>
       </c>
       <c r="G16" s="75">
         <v>0</v>
@@ -18697,51 +18716,51 @@
         <v>0</v>
       </c>
       <c r="I16" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>679.71475000000009</v>
+        <v>645.72901250000007</v>
       </c>
       <c r="K16" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>313.71450000000004</v>
+        <v>298.028775</v>
       </c>
       <c r="L16" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>52.285750000000007</v>
+        <v>49.671462500000004</v>
       </c>
       <c r="M16" s="68">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>75.523861111111117</v>
+        <v>71.747668055555565</v>
       </c>
       <c r="N16" s="68">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>78.428625000000011</v>
+        <v>74.507193749999999</v>
       </c>
       <c r="O16" s="68">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>13.071437500000002</v>
+        <v>12.417865625000001</v>
       </c>
       <c r="P16" s="105"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U16" s="57"/>
       <c r="V16" s="57"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="239"/>
+      <c r="B17" s="231"/>
       <c r="C17" s="97"/>
       <c r="D17" s="78"/>
       <c r="E17" s="99"/>
       <c r="F17" s="122">
         <f>SUM(F14:F16)</f>
-        <v>1901.3000000000002</v>
+        <v>1806.2350000000001</v>
       </c>
       <c r="G17" s="110"/>
       <c r="H17" s="80"/>
@@ -18750,7 +18769,7 @@
       <c r="K17" s="81"/>
       <c r="L17" s="123">
         <f>SUM(J14:L16)</f>
-        <v>1901.3000000000002</v>
+        <v>1806.2350000000001</v>
       </c>
       <c r="M17" s="83"/>
       <c r="N17" s="83"/>
@@ -18758,30 +18777,30 @@
       <c r="P17" s="105"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="243" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="126">
         <f>B4+B7+B7</f>
         <v>0.52083333333333326</v>
       </c>
       <c r="E18" s="127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="128">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G18" s="150">
         <v>0</v>
@@ -18791,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" s="152">
         <f>Tasks537[[#This Row],[CALORIES]]*0</f>
@@ -18799,7 +18818,7 @@
       </c>
       <c r="K18" s="152">
         <f>Tasks537[[#This Row],[CALORIES]]*1</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L18" s="153">
         <f>Tasks537[[#This Row],[CALORIES]]*0</f>
@@ -18811,7 +18830,7 @@
       </c>
       <c r="N18" s="132">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O18" s="132">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
@@ -18820,10 +18839,10 @@
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
       <c r="R18" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S18" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
@@ -18831,7 +18850,7 @@
     <row r="19" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="244"/>
       <c r="C19" s="133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="134">
         <f>D18+F7</f>
@@ -18842,7 +18861,7 @@
       </c>
       <c r="F19" s="136">
         <f>AS3*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>475.32499999999999</v>
+        <v>451.55874999999997</v>
       </c>
       <c r="G19" s="137">
         <v>0</v>
@@ -18852,37 +18871,37 @@
         <v>0</v>
       </c>
       <c r="I19" s="139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>308.96125000000001</v>
+        <v>293.51318750000002</v>
       </c>
       <c r="K19" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>142.5975</v>
+        <v>135.467625</v>
       </c>
       <c r="L19" s="131">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>23.766249999999999</v>
+        <v>22.577937500000001</v>
       </c>
       <c r="M19" s="140">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>34.329027777777782</v>
+        <v>32.61257638888889</v>
       </c>
       <c r="N19" s="140">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>35.649374999999999</v>
+        <v>33.86690625</v>
       </c>
       <c r="O19" s="140">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>5.9415624999999999</v>
+        <v>5.6444843750000002</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S19" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
@@ -18890,7 +18909,7 @@
     <row r="20" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="244"/>
       <c r="C20" s="133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="134">
         <f>D19+B7-F7</f>
@@ -18901,7 +18920,7 @@
       </c>
       <c r="F20" s="136">
         <f>AS4*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>380.26</v>
+        <v>361.24700000000001</v>
       </c>
       <c r="G20" s="137">
         <v>0</v>
@@ -18911,37 +18930,37 @@
         <v>0</v>
       </c>
       <c r="I20" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>247.16900000000001</v>
+        <v>234.81055000000001</v>
       </c>
       <c r="K20" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>114.07799999999999</v>
+        <v>108.3741</v>
       </c>
       <c r="L20" s="131">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>19.013000000000002</v>
+        <v>18.062350000000002</v>
       </c>
       <c r="M20" s="140">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>27.463222222222225</v>
+        <v>26.090061111111112</v>
       </c>
       <c r="N20" s="140">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>28.519499999999997</v>
+        <v>27.093525</v>
       </c>
       <c r="O20" s="140">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>4.7532500000000004</v>
+        <v>4.5155875000000005</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
@@ -18949,7 +18968,7 @@
     <row r="21" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="245"/>
       <c r="C21" s="141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="142">
         <f>D20+B7-F7</f>
@@ -18960,7 +18979,7 @@
       </c>
       <c r="F21" s="144">
         <f>AS5*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>1045.7150000000001</v>
+        <v>993.42925000000002</v>
       </c>
       <c r="G21" s="154">
         <v>0</v>
@@ -18970,57 +18989,57 @@
         <v>0</v>
       </c>
       <c r="I21" s="155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="146">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>679.71475000000009</v>
+        <v>645.72901250000007</v>
       </c>
       <c r="K21" s="146">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>313.71450000000004</v>
+        <v>298.028775</v>
       </c>
       <c r="L21" s="147">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>52.285750000000007</v>
+        <v>49.671462500000004</v>
       </c>
       <c r="M21" s="148">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>75.523861111111117</v>
+        <v>71.747668055555565</v>
       </c>
       <c r="N21" s="148">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>78.428625000000011</v>
+        <v>74.507193749999999</v>
       </c>
       <c r="O21" s="148">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>13.071437500000002</v>
+        <v>12.417865625000001</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S21" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
     </row>
     <row r="22" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="249" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="126">
         <f>B4+B7+B7-F7</f>
         <v>0.47916666666666657</v>
       </c>
       <c r="E22" s="127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="128">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G22" s="150">
         <v>0</v>
@@ -19030,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="152">
         <f>Tasks537[[#This Row],[CALORIES]]*0</f>
@@ -19038,7 +19057,7 @@
       </c>
       <c r="K22" s="152">
         <f>Tasks537[[#This Row],[CALORIES]]*1</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L22" s="153">
         <f>Tasks537[[#This Row],[CALORIES]]*0</f>
@@ -19050,17 +19069,17 @@
       </c>
       <c r="N22" s="132">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O22" s="132">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
         <v>0</v>
       </c>
       <c r="R22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S22" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U22" s="29"/>
       <c r="V22" s="59"/>
@@ -19068,7 +19087,7 @@
     <row r="23" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="250"/>
       <c r="C23" s="133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="134">
         <f>D22+F7</f>
@@ -19079,7 +19098,7 @@
       </c>
       <c r="F23" s="136">
         <f>AS3*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>475.32499999999999</v>
+        <v>451.55874999999997</v>
       </c>
       <c r="G23" s="137">
         <v>0</v>
@@ -19089,37 +19108,37 @@
         <v>0</v>
       </c>
       <c r="I23" s="139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J23" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>308.96125000000001</v>
+        <v>293.51318750000002</v>
       </c>
       <c r="K23" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>142.5975</v>
+        <v>135.467625</v>
       </c>
       <c r="L23" s="131">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>23.766249999999999</v>
+        <v>22.577937500000001</v>
       </c>
       <c r="M23" s="140">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>34.329027777777782</v>
+        <v>32.61257638888889</v>
       </c>
       <c r="N23" s="140">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>35.649374999999999</v>
+        <v>33.86690625</v>
       </c>
       <c r="O23" s="140">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>5.9415624999999999</v>
+        <v>5.6444843750000002</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S23" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
@@ -19127,7 +19146,7 @@
     <row r="24" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="250"/>
       <c r="C24" s="133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="134">
         <f>D23+B7</f>
@@ -19138,7 +19157,7 @@
       </c>
       <c r="F24" s="136">
         <f>AS4*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>380.26</v>
+        <v>361.24700000000001</v>
       </c>
       <c r="G24" s="137">
         <v>0</v>
@@ -19148,37 +19167,37 @@
         <v>0</v>
       </c>
       <c r="I24" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>247.16900000000001</v>
+        <v>234.81055000000001</v>
       </c>
       <c r="K24" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>114.07799999999999</v>
+        <v>108.3741</v>
       </c>
       <c r="L24" s="131">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>19.013000000000002</v>
+        <v>18.062350000000002</v>
       </c>
       <c r="M24" s="140">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>27.463222222222225</v>
+        <v>26.090061111111112</v>
       </c>
       <c r="N24" s="140">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>28.519499999999997</v>
+        <v>27.093525</v>
       </c>
       <c r="O24" s="140">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>4.7532500000000004</v>
+        <v>4.5155875000000005</v>
       </c>
       <c r="R24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="S24" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
@@ -19186,7 +19205,7 @@
     <row r="25" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="251"/>
       <c r="C25" s="141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="142">
         <f>D24+B7</f>
@@ -19197,43 +19216,44 @@
       </c>
       <c r="F25" s="144">
         <f>AS5*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>1045.7150000000001</v>
+        <v>993.42925000000002</v>
       </c>
       <c r="G25" s="154">
         <v>0</v>
       </c>
       <c r="H25" s="145"/>
       <c r="I25" s="155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="146">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>679.71475000000009</v>
+        <v>645.72901250000007</v>
       </c>
       <c r="K25" s="146">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>313.71450000000004</v>
+        <v>298.028775</v>
       </c>
       <c r="L25" s="147">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>52.285750000000007</v>
+        <v>49.671462500000004</v>
       </c>
       <c r="M25" s="148"/>
       <c r="N25" s="148"/>
       <c r="O25" s="148"/>
       <c r="R25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S25" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="231" t="s">
-        <v>75</v>
+      <c r="B26" s="223" t="str">
+        <f>IF(B10="Yes", "Day 4 (Do not eat anything after Meal 3 this day)", "Day 4")</f>
+        <v>Day 4</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="85">
         <f>B4+B7</f>
@@ -19244,7 +19264,7 @@
       </c>
       <c r="F26" s="86">
         <f>AS2*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>475.32499999999999</v>
+        <v>451.55874999999997</v>
       </c>
       <c r="G26" s="87">
         <v>0</v>
@@ -19254,37 +19274,37 @@
         <v>0</v>
       </c>
       <c r="I26" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J26" s="89">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>308.96125000000001</v>
+        <v>293.51318750000002</v>
       </c>
       <c r="K26" s="89">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>142.5975</v>
+        <v>135.467625</v>
       </c>
       <c r="L26" s="90">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>23.766249999999999</v>
+        <v>22.577937500000001</v>
       </c>
       <c r="M26" s="91">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>34.329027777777782</v>
+        <v>32.61257638888889</v>
       </c>
       <c r="N26" s="91">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>35.649374999999999</v>
+        <v>33.86690625</v>
       </c>
       <c r="O26" s="91">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>5.9415624999999999</v>
+        <v>5.6444843750000002</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="232"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="64">
         <f>D26+B7+F7</f>
@@ -19295,7 +19315,7 @@
       </c>
       <c r="F27" s="65">
         <f>AS3*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>380.26</v>
+        <v>361.24700000000001</v>
       </c>
       <c r="G27" s="75">
         <v>0</v>
@@ -19305,48 +19325,48 @@
         <v>0</v>
       </c>
       <c r="I27" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>247.16900000000001</v>
+        <v>234.81055000000001</v>
       </c>
       <c r="K27" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>114.07799999999999</v>
+        <v>108.3741</v>
       </c>
       <c r="L27" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>19.013000000000002</v>
+        <v>18.062350000000002</v>
       </c>
       <c r="M27" s="68">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>27.463222222222225</v>
+        <v>26.090061111111112</v>
       </c>
       <c r="N27" s="68">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>28.519499999999997</v>
+        <v>27.093525</v>
       </c>
       <c r="O27" s="68">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>4.7532500000000004</v>
+        <v>4.5155875000000005</v>
       </c>
     </row>
     <row r="28" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="232"/>
+      <c r="B28" s="224"/>
       <c r="C28" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="64">
         <f>IF(B10="No",D27+B7+B7-F7, D27+B7+-F7)</f>
-        <v>0.64583333333333326</v>
+        <v>0.77083333333333326</v>
       </c>
       <c r="E28" s="50">
         <v>55</v>
       </c>
       <c r="F28" s="65">
         <f>AS4*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>1045.7150000000001</v>
+        <v>993.42925000000002</v>
       </c>
       <c r="G28" s="75">
         <v>0</v>
@@ -19356,35 +19376,35 @@
         <v>0</v>
       </c>
       <c r="I28" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>679.71475000000009</v>
+        <v>645.72901250000007</v>
       </c>
       <c r="K28" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>313.71450000000004</v>
+        <v>298.028775</v>
       </c>
       <c r="L28" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>52.285750000000007</v>
+        <v>49.671462500000004</v>
       </c>
       <c r="M28" s="68">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>75.523861111111117</v>
+        <v>71.747668055555565</v>
       </c>
       <c r="N28" s="68">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>78.428625000000011</v>
+        <v>74.507193749999999</v>
       </c>
       <c r="O28" s="68">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>13.071437500000002</v>
+        <v>12.417865625000001</v>
       </c>
     </row>
     <row r="29" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="233"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="97"/>
       <c r="D29" s="78"/>
       <c r="E29" s="99"/>
@@ -19400,21 +19420,24 @@
       <c r="O29" s="83"/>
     </row>
     <row r="30" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="213" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="125" t="s">
-        <v>101</v>
+      <c r="B30" s="234" t="str">
+        <f>IF(B10="Yes","Day 5 (Welcome to Autophagy!)","Day 5")</f>
+        <v>Day 5</v>
+      </c>
+      <c r="C30" s="125" t="str">
+        <f>IF(B10="Yes","Mini Meal","Meal 1")</f>
+        <v>Meal 1</v>
       </c>
       <c r="D30" s="126">
-        <f>D28</f>
-        <v>0.64583333333333326</v>
-      </c>
-      <c r="E30" s="127" t="s">
-        <v>103</v>
+        <f>IF(B10="Yes",D28, B4+B7)</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="127" t="str">
+        <f>IF(B10="Yes","NA","25")</f>
+        <v>25</v>
       </c>
       <c r="F30" s="128">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G30" s="150">
         <v>0</v>
@@ -19423,8 +19446,9 @@
         <f>--(Tasks537[[#This Row],[%COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="161" t="s">
-        <v>102</v>
+      <c r="I30" s="161" t="str">
+        <f>IF(B10="Yes","Break your fast with only Protein","Breakfast")</f>
+        <v>Breakfast</v>
       </c>
       <c r="J30" s="152">
         <f>Tasks537[[#This Row],[CALORIES]]*0</f>
@@ -19432,7 +19456,7 @@
       </c>
       <c r="K30" s="152">
         <f>Tasks537[[#This Row],[CALORIES]]*1</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L30" s="153">
         <f>Tasks537[[#This Row],[CALORIES]]*0</f>
@@ -19444,7 +19468,7 @@
       </c>
       <c r="N30" s="132">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O30" s="132">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
@@ -19452,20 +19476,22 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="214"/>
-      <c r="C31" s="133" t="s">
-        <v>83</v>
+      <c r="B31" s="235"/>
+      <c r="C31" s="133" t="str">
+        <f>IF(B10="Yes","Meal 1","Meal 2")</f>
+        <v>Meal 2</v>
       </c>
       <c r="D31" s="134">
-        <f>D30+F7</f>
-        <v>0.68749999999999989</v>
-      </c>
-      <c r="E31" s="135">
-        <v>35</v>
+        <f>IF(B10="Yes",D30+F7,D30+B7)</f>
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="E31" s="135" t="str">
+        <f>IF(B10="Yes","35","20")</f>
+        <v>20</v>
       </c>
       <c r="F31" s="136">
         <f>AS3*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>665.45499999999993</v>
+        <v>361.24700000000001</v>
       </c>
       <c r="G31" s="137">
         <v>0</v>
@@ -19474,49 +19500,52 @@
         <f>--(Tasks537[[#This Row],[%COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="139" t="s">
-        <v>82</v>
+      <c r="I31" s="139" t="str">
+        <f>IF(B10="Yes","Snack", "Lunch")</f>
+        <v>Lunch</v>
       </c>
       <c r="J31" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>432.54574999999994</v>
+        <v>234.81055000000001</v>
       </c>
       <c r="K31" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>199.63649999999998</v>
+        <v>108.3741</v>
       </c>
       <c r="L31" s="131">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>33.272749999999995</v>
+        <v>18.062350000000002</v>
       </c>
       <c r="M31" s="140">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>48.060638888888882</v>
+        <v>26.090061111111112</v>
       </c>
       <c r="N31" s="140">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>49.909124999999996</v>
+        <v>27.093525</v>
       </c>
       <c r="O31" s="140">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>8.3181874999999987</v>
+        <v>4.5155875000000005</v>
       </c>
     </row>
     <row r="32" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="214"/>
-      <c r="C32" s="133" t="s">
-        <v>84</v>
+      <c r="B32" s="235"/>
+      <c r="C32" s="133" t="str">
+        <f>IF(B10="Yes","Meal 2","Meal 3")</f>
+        <v>Meal 3</v>
       </c>
       <c r="D32" s="134">
-        <f>D31+B7-F7</f>
+        <f>IF(B10="Yes",D31+B7-F7,D31+B7+B7)</f>
         <v>0.77083333333333326</v>
       </c>
-      <c r="E32" s="135">
-        <v>35</v>
+      <c r="E32" s="135" t="str">
+        <f>IF(B10="Yes","35","55")</f>
+        <v>55</v>
       </c>
       <c r="F32" s="136">
         <f>AS4*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>665.45499999999993</v>
+        <v>993.42925000000002</v>
       </c>
       <c r="G32" s="137">
         <v>0</v>
@@ -19526,39 +19555,42 @@
         <v>0</v>
       </c>
       <c r="I32" s="139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>432.54574999999994</v>
+        <v>645.72901250000007</v>
       </c>
       <c r="K32" s="130">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>199.63649999999998</v>
+        <v>298.028775</v>
       </c>
       <c r="L32" s="131">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>33.272749999999995</v>
+        <v>49.671462500000004</v>
       </c>
       <c r="M32" s="140">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>48.060638888888882</v>
+        <v>71.747668055555565</v>
       </c>
       <c r="N32" s="140">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>49.909124999999996</v>
+        <v>74.507193749999999</v>
       </c>
       <c r="O32" s="140">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>8.3181874999999987</v>
+        <v>12.417865625000001</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="215"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="97"/>
       <c r="D33" s="78"/>
       <c r="E33" s="99"/>
-      <c r="F33" s="79"/>
+      <c r="F33" s="122">
+        <f>SUM(F31:F32)</f>
+        <v>1354.67625</v>
+      </c>
       <c r="G33" s="110"/>
       <c r="H33" s="80"/>
       <c r="I33" s="77"/>
@@ -19570,11 +19602,11 @@
       <c r="O33" s="83"/>
     </row>
     <row r="34" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="217" t="s">
-        <v>77</v>
+      <c r="B34" s="238" t="s">
+        <v>76</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="51">
         <f>B4+B7</f>
@@ -19585,7 +19617,7 @@
       </c>
       <c r="F34" s="65">
         <f>AS2*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>475.32499999999999</v>
+        <v>451.55874999999997</v>
       </c>
       <c r="G34" s="66">
         <v>0</v>
@@ -19595,37 +19627,37 @@
         <v>0</v>
       </c>
       <c r="I34" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J34" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>308.96125000000001</v>
+        <v>293.51318750000002</v>
       </c>
       <c r="K34" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>142.5975</v>
+        <v>135.467625</v>
       </c>
       <c r="L34" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>23.766249999999999</v>
+        <v>22.577937500000001</v>
       </c>
       <c r="M34" s="69">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>34.329027777777782</v>
+        <v>32.61257638888889</v>
       </c>
       <c r="N34" s="69">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>35.649374999999999</v>
+        <v>33.86690625</v>
       </c>
       <c r="O34" s="69">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>5.9415624999999999</v>
+        <v>5.6444843750000002</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="217"/>
+      <c r="B35" s="238"/>
       <c r="C35" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="51">
         <f>D34+B7+F7</f>
@@ -19636,7 +19668,7 @@
       </c>
       <c r="F35" s="65">
         <f>AS3*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>380.26</v>
+        <v>361.24700000000001</v>
       </c>
       <c r="G35" s="66">
         <v>0</v>
@@ -19646,37 +19678,37 @@
         <v>0</v>
       </c>
       <c r="I35" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>247.16900000000001</v>
+        <v>234.81055000000001</v>
       </c>
       <c r="K35" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>114.07799999999999</v>
+        <v>108.3741</v>
       </c>
       <c r="L35" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>19.013000000000002</v>
+        <v>18.062350000000002</v>
       </c>
       <c r="M35" s="68">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>27.463222222222225</v>
+        <v>26.090061111111112</v>
       </c>
       <c r="N35" s="68">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>28.519499999999997</v>
+        <v>27.093525</v>
       </c>
       <c r="O35" s="68">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>4.7532500000000004</v>
+        <v>4.5155875000000005</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="217"/>
+      <c r="B36" s="238"/>
       <c r="C36" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="52">
         <f>D35+B7+B7-F7</f>
@@ -19687,7 +19719,7 @@
       </c>
       <c r="F36" s="65">
         <f>AS4*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>1045.7150000000001</v>
+        <v>993.42925000000002</v>
       </c>
       <c r="G36" s="66">
         <v>0</v>
@@ -19697,35 +19729,35 @@
         <v>0</v>
       </c>
       <c r="I36" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>679.71475000000009</v>
+        <v>645.72901250000007</v>
       </c>
       <c r="K36" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>313.71450000000004</v>
+        <v>298.028775</v>
       </c>
       <c r="L36" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>52.285750000000007</v>
+        <v>49.671462500000004</v>
       </c>
       <c r="M36" s="68">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>75.523861111111117</v>
+        <v>71.747668055555565</v>
       </c>
       <c r="N36" s="68">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>78.428625000000011</v>
+        <v>74.507193749999999</v>
       </c>
       <c r="O36" s="68">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>13.071437500000002</v>
+        <v>12.417865625000001</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="218"/>
+      <c r="B37" s="239"/>
       <c r="C37" s="97"/>
       <c r="D37" s="98"/>
       <c r="E37" s="99"/>
@@ -19741,11 +19773,11 @@
       <c r="O37" s="83"/>
     </row>
     <row r="38" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="219" t="s">
-        <v>78</v>
+      <c r="B38" s="240" t="s">
+        <v>77</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="93">
         <f>B4+B7</f>
@@ -19756,7 +19788,7 @@
       </c>
       <c r="F38" s="94">
         <f>AS2*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>475.32499999999999</v>
+        <v>451.55874999999997</v>
       </c>
       <c r="G38" s="102">
         <v>0</v>
@@ -19766,37 +19798,37 @@
         <v>0</v>
       </c>
       <c r="I38" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J38" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>308.96125000000001</v>
+        <v>293.51318750000002</v>
       </c>
       <c r="K38" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>142.5975</v>
+        <v>135.467625</v>
       </c>
       <c r="L38" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>23.766249999999999</v>
+        <v>22.577937500000001</v>
       </c>
       <c r="M38" s="104">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>34.329027777777782</v>
+        <v>32.61257638888889</v>
       </c>
       <c r="N38" s="104">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>35.649374999999999</v>
+        <v>33.86690625</v>
       </c>
       <c r="O38" s="104">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>5.9415624999999999</v>
+        <v>5.6444843750000002</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="220"/>
+      <c r="B39" s="241"/>
       <c r="C39" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="51">
         <f>D38+B7+F7</f>
@@ -19807,7 +19839,7 @@
       </c>
       <c r="F39" s="49">
         <f>AS3*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>380.26</v>
+        <v>361.24700000000001</v>
       </c>
       <c r="G39" s="48">
         <v>0</v>
@@ -19817,37 +19849,37 @@
         <v>0</v>
       </c>
       <c r="I39" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>247.16900000000001</v>
+        <v>234.81055000000001</v>
       </c>
       <c r="K39" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>114.07799999999999</v>
+        <v>108.3741</v>
       </c>
       <c r="L39" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>19.013000000000002</v>
+        <v>18.062350000000002</v>
       </c>
       <c r="M39" s="42">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>27.463222222222225</v>
+        <v>26.090061111111112</v>
       </c>
       <c r="N39" s="42">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>28.519499999999997</v>
+        <v>27.093525</v>
       </c>
       <c r="O39" s="42">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>4.7532500000000004</v>
+        <v>4.5155875000000005</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="220"/>
+      <c r="B40" s="241"/>
       <c r="C40" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="52">
         <f>D39+B7+B7-F7</f>
@@ -19858,7 +19890,7 @@
       </c>
       <c r="F40" s="49">
         <f>AS4*(Tasks537[[#This Row],[%CALORIES]]/100)</f>
-        <v>1045.7150000000001</v>
+        <v>993.42925000000002</v>
       </c>
       <c r="G40" s="48">
         <v>0</v>
@@ -19868,35 +19900,35 @@
         <v>0</v>
       </c>
       <c r="I40" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.65</f>
-        <v>679.71475000000009</v>
+        <v>645.72901250000007</v>
       </c>
       <c r="K40" s="76">
         <f>Tasks537[[#This Row],[CALORIES]]*0.3</f>
-        <v>313.71450000000004</v>
+        <v>298.028775</v>
       </c>
       <c r="L40" s="70">
         <f>Tasks537[[#This Row],[CALORIES]]*0.05</f>
-        <v>52.285750000000007</v>
+        <v>49.671462500000004</v>
       </c>
       <c r="M40" s="42">
         <f>Tasks537[[#This Row],[FAT]]/9</f>
-        <v>75.523861111111117</v>
+        <v>71.747668055555565</v>
       </c>
       <c r="N40" s="42">
         <f>Tasks537[[#This Row],[PRO]]/4</f>
-        <v>78.428625000000011</v>
+        <v>74.507193749999999</v>
       </c>
       <c r="O40" s="42">
         <f>Tasks537[[#This Row],[CHO]]/4</f>
-        <v>13.071437500000002</v>
+        <v>12.417865625000001</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="221"/>
+      <c r="B41" s="242"/>
       <c r="C41" s="97"/>
       <c r="D41" s="98"/>
       <c r="E41" s="99"/>
@@ -19927,7 +19959,7 @@
     </row>
     <row r="44" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="117"/>
       <c r="E44" s="117"/>
@@ -19936,12 +19968,12 @@
       <c r="H44" s="117"/>
       <c r="I44" s="117"/>
       <c r="M44" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="165"/>
       <c r="E45" s="165"/>
@@ -19951,11 +19983,11 @@
       <c r="I45" s="165"/>
       <c r="J45" s="165"/>
       <c r="K45" s="166"/>
-      <c r="M45" s="211" t="s">
-        <v>90</v>
-      </c>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
+      <c r="M45" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
       <c r="P45" s="119"/>
       <c r="Q45" s="119"/>
     </row>
@@ -19980,11 +20012,11 @@
       <c r="I47" s="168"/>
       <c r="J47" s="168"/>
       <c r="K47" s="169"/>
-      <c r="M47" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="212"/>
-      <c r="O47" s="212"/>
+      <c r="M47" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="N47" s="233"/>
+      <c r="O47" s="233"/>
     </row>
     <row r="48" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="167"/>
@@ -20242,12 +20274,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="17">
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C45:K58"/>
     <mergeCell ref="M45:O45"/>
@@ -20259,6 +20285,12 @@
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="B3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="G14:G20 G26:G29 G34:G41">
     <cfRule type="dataBar" priority="15">
@@ -20362,7 +20394,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8" xr:uid="{705FCBFB-3B5E-C049-B956-2A949E14ECA5}">
       <formula1>"01:00:00"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{569F1987-6C59-F443-8B47-CE059D4DF557}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{569F1987-6C59-F443-8B47-CE059D4DF557}">
       <formula1>"03:00:00"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="G14:G41" xr:uid="{51D1BDA0-65AD-CC45-87DB-F15EF47D75DB}">
@@ -20396,7 +20428,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="K14:K21 J14:J21 L17:L18 F17:F18 K26:K29 J26:J29 F27:F29 K34:K40 J34:J40 F34:F40 F20:F21" calculatedColumn="1"/>
+    <ignoredError sqref="K14:K21 J14:J21 L17:L18 F17:F18 K34:K40 J34:J40 F34:F40 F20:F22 F27:F30 F19 F31:F33 F23:F26 J26:J29 K26:K29 J22:L25 J30:L32 L26:L29" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId17"/>
   <tableParts count="1">
@@ -20713,7 +20745,7 @@
     </row>
     <row r="3" spans="2:45" ht="24" x14ac:dyDescent="0.2">
       <c r="B3" s="200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="200"/>
       <c r="D3" s="200"/>
@@ -20750,7 +20782,7 @@
     </row>
     <row r="6" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="200"/>
       <c r="D6" s="200"/>
@@ -20772,7 +20804,7 @@
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="R9" s="173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S9" s="174"/>
       <c r="T9" s="174"/>
@@ -20780,97 +20812,97 @@
       <c r="V9" s="174"/>
     </row>
     <row r="10" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="234" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="222" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="223"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="240" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="241"/>
-      <c r="O10" s="242"/>
+      <c r="B10" s="226" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="215"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="211" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="212"/>
+      <c r="O10" s="213"/>
       <c r="P10" s="116"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="55" t="s">
         <v>51</v>
-      </c>
-      <c r="S10" s="55" t="s">
-        <v>52</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
     <row r="11" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="E11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="F11" s="112" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="112" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="113" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="111" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="L11" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="115" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="62"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
     </row>
     <row r="12" spans="2:45" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="237" t="s">
-        <v>68</v>
+      <c r="B12" s="229" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="64">
         <f>B4+B7</f>
@@ -20891,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -20920,18 +20952,18 @@
       <c r="P12" s="105"/>
       <c r="Q12" s="54"/>
       <c r="R12" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S12" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" s="57"/>
       <c r="V12" s="57"/>
     </row>
     <row r="13" spans="2:45" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="238"/>
+      <c r="B13" s="230"/>
       <c r="C13" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="64">
         <f>D12+B7</f>
@@ -20952,7 +20984,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -20981,18 +21013,18 @@
       <c r="P13" s="105"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S13" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U13" s="57"/>
       <c r="V13" s="57"/>
     </row>
     <row r="14" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="238"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="64">
         <f>D13+B7</f>
@@ -21013,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21042,18 +21074,18 @@
       <c r="P14" s="105"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U14" s="57"/>
       <c r="V14" s="57"/>
     </row>
     <row r="15" spans="2:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="239"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="78">
         <f>D14+B7</f>
@@ -21074,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="121">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21103,20 +21135,20 @@
       <c r="P15" s="105"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
     </row>
     <row r="16" spans="2:45" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="225" t="s">
-        <v>73</v>
+      <c r="B16" s="217" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="85">
         <f>B4+B7</f>
@@ -21137,7 +21169,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21166,18 +21198,18 @@
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="226"/>
+      <c r="B17" s="218"/>
       <c r="C17" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="64">
         <f>D16+B7</f>
@@ -21198,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21225,18 +21257,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="226"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="64">
         <f>D17+B7</f>
@@ -21257,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21284,18 +21316,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S18" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
     </row>
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="227"/>
+      <c r="B19" s="219"/>
       <c r="C19" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="78">
         <f>D18+B7</f>
@@ -21316,7 +21348,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="121">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21343,20 +21375,20 @@
         <v>8.3181874999999987</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S19" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
     <row r="20" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="228" t="s">
-        <v>74</v>
+      <c r="B20" s="220" t="s">
+        <v>73</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="85">
         <f>B4+B7</f>
@@ -21377,7 +21409,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21404,18 +21436,18 @@
         <v>3.5649375000000001</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U20" s="29"/>
       <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="229"/>
+      <c r="B21" s="221"/>
       <c r="C21" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="64">
         <f>D20+B7</f>
@@ -21436,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21463,18 +21495,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S21" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
     </row>
     <row r="22" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="229"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="64">
         <f>D21+B7</f>
@@ -21495,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21522,18 +21554,18 @@
         <v>5.9415624999999999</v>
       </c>
       <c r="R22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="S22" s="60" t="s">
-        <v>65</v>
       </c>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
     </row>
     <row r="23" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="230"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="78">
         <f>D22+B7</f>
@@ -21554,7 +21586,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="121">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21581,18 +21613,18 @@
         <v>8.3181874999999987</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S23" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="231" t="s">
-        <v>75</v>
+      <c r="B24" s="223" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="85">
         <f>B4+B7</f>
@@ -21613,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21641,9 +21673,9 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="232"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="64">
         <f>D24+B7</f>
@@ -21664,7 +21696,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21692,9 +21724,9 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="232"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="64">
         <f>D25+B7</f>
@@ -21715,7 +21747,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21743,9 +21775,9 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="233"/>
+      <c r="B27" s="225"/>
       <c r="C27" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="78">
         <f>D26+B7</f>
@@ -21766,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="121">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21794,11 +21826,11 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="213" t="s">
-        <v>76</v>
+      <c r="B28" s="234" t="s">
+        <v>75</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="85">
         <f>B4+B7</f>
@@ -21819,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21847,9 +21879,9 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="214"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="64">
         <f>D28+B7</f>
@@ -21870,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J29" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21898,9 +21930,9 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="214"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="64">
         <f>D29+B7</f>
@@ -21921,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -21949,9 +21981,9 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="215"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="78">
         <f>D30+B7</f>
@@ -21972,7 +22004,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="121">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22000,11 +22032,11 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="216" t="s">
-        <v>77</v>
+      <c r="B32" s="237" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="93">
         <f>B4+B7</f>
@@ -22025,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J32" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22053,9 +22085,9 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="217"/>
+      <c r="B33" s="238"/>
       <c r="C33" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="51">
         <f>D32+B7</f>
@@ -22076,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22104,9 +22136,9 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="217"/>
+      <c r="B34" s="238"/>
       <c r="C34" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="52">
         <f>D33+B7</f>
@@ -22127,7 +22159,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22155,9 +22187,9 @@
       </c>
     </row>
     <row r="35" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="218"/>
+      <c r="B35" s="239"/>
       <c r="C35" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="98">
         <f>D34+B7</f>
@@ -22178,7 +22210,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="121">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22206,11 +22238,11 @@
       </c>
     </row>
     <row r="36" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="219" t="s">
-        <v>78</v>
+      <c r="B36" s="240" t="s">
+        <v>77</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="93">
         <f>B4+B7</f>
@@ -22231,7 +22263,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J36" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22259,9 +22291,9 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="220"/>
+      <c r="B37" s="241"/>
       <c r="C37" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="51">
         <f>D36+B7</f>
@@ -22282,7 +22314,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22310,9 +22342,9 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="220"/>
+      <c r="B38" s="241"/>
       <c r="C38" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="52">
         <f>D37+B7</f>
@@ -22333,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" s="76">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22361,9 +22393,9 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="221"/>
+      <c r="B39" s="242"/>
       <c r="C39" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="98">
         <f>D38+B7</f>
@@ -22384,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="121">
         <f>Tasks5346[[#This Row],[CALORIES]]*0.7</f>
@@ -22427,7 +22459,7 @@
     </row>
     <row r="42" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="117"/>
       <c r="E42" s="117"/>
@@ -22436,12 +22468,12 @@
       <c r="H42" s="117"/>
       <c r="I42" s="117"/>
       <c r="M42" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="165"/>
       <c r="E43" s="165"/>
@@ -22451,11 +22483,11 @@
       <c r="I43" s="165"/>
       <c r="J43" s="165"/>
       <c r="K43" s="166"/>
-      <c r="M43" s="211" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="212"/>
-      <c r="O43" s="212"/>
+      <c r="M43" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="N43" s="233"/>
+      <c r="O43" s="233"/>
       <c r="P43" s="119"/>
       <c r="Q43" s="119"/>
     </row>
@@ -22480,11 +22512,11 @@
       <c r="I45" s="168"/>
       <c r="J45" s="168"/>
       <c r="K45" s="169"/>
-      <c r="M45" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
+      <c r="M45" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
     </row>
     <row r="46" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="167"/>
@@ -22742,12 +22774,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="16">
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="C43:K56"/>
     <mergeCell ref="M43:O43"/>
@@ -22758,6 +22784,12 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G39">
     <cfRule type="dataBar" priority="5">
